--- a/Daily-Sales.xlsx
+++ b/Daily-Sales.xlsx
@@ -12,33 +12,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
-  <si>
-    <t>Order Id</t>
-  </si>
-  <si>
-    <t>User Email</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Total Price</t>
-  </si>
-  <si>
-    <t>Note</t>
-  </si>
-  <si>
-    <t>Status</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+  <si>
+    <t>Daily Sales Report</t>
+  </si>
+  <si>
+    <t>order_id</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>total_price</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>Bl8vPhXES829</t>
+  </si>
+  <si>
+    <t>example@example.com</t>
+  </si>
+  <si>
+    <t>Custom order</t>
+  </si>
+  <si>
+    <t>Shipped</t>
   </si>
   <si>
     <t>y3i5M83ZgO4e</t>
   </si>
   <si>
     <t>gnsadisha@gmail.com</t>
-  </si>
-  <si>
-    <t>2021-09-29 20:31:55</t>
   </si>
   <si>
     <t>Test order.
@@ -49,12 +61,6 @@
   </si>
   <si>
     <t>tcbhrIiEjQ83</t>
-  </si>
-  <si>
-    <t>example@example.com</t>
-  </si>
-  <si>
-    <t>2021-09-30 01:28:10</t>
   </si>
   <si>
     <t>test buy now</t>
@@ -96,8 +102,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
@@ -106,7 +113,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -116,63 +123,91 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7348.0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>44468.85239583333</v>
+      </c>
+      <c r="D4" t="n">
+        <v>873.0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C5" s="2" t="n">
+        <v>44468.85549768519</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7348.0</v>
+      </c>
+      <c r="E5" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="n">
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>44469.06122685185</v>
+      </c>
+      <c r="D6" t="n">
         <v>2093.0</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
         <v>14</v>
       </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F2"/>
+  </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Daily-Sales.xlsx
+++ b/Daily-Sales.xlsx
@@ -113,7 +113,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -124,83 +124,83 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" t="s">
-        <v>6</v>
-      </c>
-    </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>44468.85239583333</v>
-      </c>
-      <c r="D4" t="n">
-        <v>873.0</v>
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>44468.85549768519</v>
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>44468.85239583333</v>
       </c>
       <c r="D5" t="n">
-        <v>7348.0</v>
+        <v>873.0</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>44468.85549768519</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7348.0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="3" t="n">
+      <c r="C7" s="3" t="n">
         <v>44469.06122685185</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>2093.0</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E7" t="s">
         <v>16</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F7" t="s">
         <v>14</v>
       </c>
     </row>

--- a/Daily-Sales.xlsx
+++ b/Daily-Sales.xlsx
@@ -118,6 +118,14 @@
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="14.60546875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="22.125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="21.13671875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="10.39453125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="13.2890625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="10.57421875" customWidth="true" bestFit="true"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
